--- a/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
+++ b/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonor\Documents\INSA\INSA GP 4A\S2\UF du capteur au banc de test\2020-2021_GAICH_STEPHEN_Capteur_Graphite\Banc de test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\4ème année GP\Capteurs\2020-2021_GAICH_STEPHEN_Capteur_Graphite-main\2020-2021_GAICH_STEPHEN_Capteur_Graphite\Banc de test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0645012C-28CE-4BB0-ADEE-CDAB3514DAAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445F39CA-981B-443A-BCCA-2F708D6B9B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri " sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_h2">'Plan Mat Hadamard'!$A$2:$B$3</definedName>
+    <definedName name="_h4">'Plan Mat Hadamard'!$A$2:$D$5</definedName>
     <definedName name="_Hexp">'Tri '!#REF!</definedName>
     <definedName name="_Mat_exp">'Tri '!$N$3:$R$12</definedName>
     <definedName name="_sigma" localSheetId="1">#REF!</definedName>
@@ -43,7 +45,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -763,7 +764,7 @@
     <cellStyle name="Milliers 2" xfId="3" xr:uid="{D25E7B59-F84A-4C17-9838-5FEC6C4B211E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{7597C118-1E0B-4A3D-93E2-45B61D5878D3}"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,7 +789,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -867,7 +868,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1070,7 +1071,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1108,7 +1109,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="540323392"/>
@@ -1187,7 +1188,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1225,7 +1226,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="540325472"/>
@@ -1276,7 +1277,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1290,7 +1291,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1369,7 +1370,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1572,7 +1573,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1610,7 +1611,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628269760"/>
@@ -1689,7 +1690,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1727,7 +1728,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="628268512"/>
@@ -1778,7 +1779,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1792,7 +1793,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1925,7 +1926,7 @@
                       <a:cs typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1946,7 +1947,7 @@
             <c:numRef>
               <c:f>'Verif Err _ droite henry'!$G$4:$G$13</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.000\ _F_-;\-* #\ ##0.000\ _F_-;_-* "-"??\ _F_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #,##0.000\ _F_-;\-* #,##0.000\ _F_-;_-* "-"??\ _F_-;_-@_-</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2078,7 +2079,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="329193320"/>
@@ -2145,7 +2146,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="_-* #\ ##0.000\ _F_-;\-* #\ ##0.000\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0.000\ _F_-;\-* #,##0.000\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2176,7 +2177,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="329192928"/>
@@ -2213,7 +2214,7 @@
               <a:cs typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2250,7 +2251,7 @@
           <a:cs typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3974,7 +3975,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4272,11 +4273,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F207AC7-7798-468F-8B32-D39C6BC5D772}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30:R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="11.5546875" style="2"/>
     <col min="13" max="13" width="14.33203125" style="2" customWidth="1"/>
@@ -4306,23 +4307,23 @@
       </c>
       <c r="N3" s="5">
         <f ca="1">0.5+RAND()*(1-0.5)</f>
-        <v>0.63637163661237417</v>
+        <v>0.59634318232452976</v>
       </c>
       <c r="O3" s="5">
         <f ca="1">0.5+RAND()*(1.5-0.5)</f>
-        <v>1.4117905444133449</v>
+        <v>0.93954125905376862</v>
       </c>
       <c r="P3" s="5">
         <f ca="1">0.3+RAND()*(0.6-0.3)</f>
-        <v>0.41425779240136257</v>
+        <v>0.40817203612234243</v>
       </c>
       <c r="Q3" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" s="5">
         <f ca="1">0.2+RAND()*(0.6-0.2)</f>
-        <v>0.45883893834425082</v>
+        <v>0.58116233210401824</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -4331,23 +4332,23 @@
       </c>
       <c r="N4" s="5">
         <f t="shared" ref="N4:N12" ca="1" si="0">0.5+RAND()*(1-0.5)</f>
-        <v>0.52693310190084119</v>
+        <v>0.70774795584674433</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" ref="O4:O12" ca="1" si="1">0.5+RAND()*(1.5-0.5)</f>
-        <v>1.074240245558221</v>
+        <v>1.29492997893853</v>
       </c>
       <c r="P4" s="5">
         <f t="shared" ref="P4:P12" ca="1" si="2">0.3+RAND()*(0.6-0.3)</f>
-        <v>0.58019404419338261</v>
+        <v>0.57556343038225499</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ref="Q4:Q12" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R4" s="5">
         <f t="shared" ref="R4:R12" ca="1" si="4">0.2+RAND()*(0.6-0.2)</f>
-        <v>0.32082617603494884</v>
+        <v>0.57740886895743571</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -4356,15 +4357,15 @@
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90669646323302366</v>
+        <v>0.73323061488019148</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72689340925890322</v>
+        <v>0.63241957430330753</v>
       </c>
       <c r="P5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32624461793641668</v>
+        <v>0.49907811144215497</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -4372,7 +4373,7 @@
       </c>
       <c r="R5" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37087417816549151</v>
+        <v>0.38735267220323188</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -4384,23 +4385,23 @@
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85467308732098779</v>
+        <v>0.94445155940557157</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55368114772028731</v>
+        <v>1.4522604071324294</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47230263035947362</v>
+        <v>0.37053945271362909</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3681563078104676</v>
+        <v>0.35909866110101779</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -4409,23 +4410,23 @@
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99294796686416709</v>
+        <v>0.70317852748315124</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1348452693277435</v>
+        <v>1.4115539305907552</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58118604181829503</v>
+        <v>0.43369316094573029</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31890408933739145</v>
+        <v>0.29478030716319931</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -4434,23 +4435,23 @@
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8614180076855098</v>
+        <v>0.86052801653065414</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86537146696149125</v>
+        <v>0.7768405683424181</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36281539366831844</v>
+        <v>0.42870164232392705</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31695414427686108</v>
+        <v>0.53150474657166247</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -4459,23 +4460,23 @@
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55859372497171456</v>
+        <v>0.53737208062096098</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1426769808075945</v>
+        <v>0.91791175535041003</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5321990441063722</v>
+        <v>0.38171420757726576</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2872174830613341</v>
+        <v>0.58310526397975115</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4484,15 +4485,15 @@
       </c>
       <c r="N10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76412042816344905</v>
+        <v>0.81413477796846934</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3583054907318788</v>
+        <v>1.0399810729942325</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5411763747654601</v>
+        <v>0.53844236160527825</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -4500,51 +4501,51 @@
       </c>
       <c r="R10" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31250090252694507</v>
+        <v>0.25588388938023143</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9419038645986999</v>
+        <v>0.76060704453003114</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2232689975025108</v>
+        <v>1.1798130618893967</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4802083603092222</v>
+        <v>0.46497256342368165</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30019972191100763</v>
+        <v>0.54171442146080451</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92541059177170149</v>
+        <v>0.81926508097365769</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2001163562430883</v>
+        <v>0.90279494781299463</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43233843377956688</v>
+        <v>0.35601007233542248</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26639395245599629</v>
+        <v>0.56315647708363459</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -4641,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="5">
-        <f ca="1">$G$36+$F$36*N3+$E$36*O3+$D$36*P3+$C$36*Q3+$B$36*R3</f>
+        <f t="shared" ref="I19:I28" ca="1" si="5">$G$36+$F$36*N3+$E$36*O3+$D$36*P3+$C$36*Q3+$B$36*R3</f>
         <v>0</v>
       </c>
       <c r="J19" s="5">
@@ -4679,15 +4680,15 @@
         <v>0</v>
       </c>
       <c r="I20" s="5">
-        <f ca="1">$G$36+$F$36*N4+$E$36*O4+$D$36*P4+$C$36*Q4+$B$36*R4</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ref="J20:J28" ca="1" si="5">H20-I20</f>
+        <f t="shared" ref="J20:J28" ca="1" si="6">H20-I20</f>
         <v>0</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" ref="K20:K28" ca="1" si="6">J20^2</f>
+        <f t="shared" ref="K20:K28" ca="1" si="7">J20^2</f>
         <v>0</v>
       </c>
       <c r="N20" t="s">
@@ -4735,15 +4736,15 @@
         <v>0</v>
       </c>
       <c r="I21" s="5">
-        <f ca="1">$G$36+$F$36*N5+$E$36*O5+$D$36*P5+$C$36*Q5+$B$36*R5</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="N21" s="39" t="s">
@@ -4784,15 +4785,15 @@
         <v>0</v>
       </c>
       <c r="I22" s="5">
-        <f ca="1">$G$36+$F$36*N6+$E$36*O6+$D$36*P6+$C$36*Q6+$B$36*R6</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="N22" s="39" t="s">
@@ -4800,11 +4801,11 @@
       </c>
       <c r="O22" s="40">
         <f ca="1">CORREL(N3:N12,O3:O12)^2</f>
-        <v>7.3389570631083034E-2</v>
+        <v>4.5541353384052914E-2</v>
       </c>
       <c r="P22" s="40">
         <f ca="1">CORREL(O3:O12,O3:O12)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="40"/>
       <c r="R22" s="40"/>
@@ -4836,15 +4837,15 @@
         <v>0</v>
       </c>
       <c r="I23" s="5">
-        <f ca="1">$G$36+$F$36*N7+$E$36*O7+$D$36*P7+$C$36*Q7+$B$36*R7</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="N23" s="39" t="s">
@@ -4852,15 +4853,15 @@
       </c>
       <c r="O23" s="40">
         <f ca="1">CORREL(N3:N12,P3:P12)^2</f>
-        <v>0.1001301816827003</v>
+        <v>1.4126400673723416E-3</v>
       </c>
       <c r="P23" s="40">
         <f ca="1">CORREL(O3:O12,P3:P12)^2</f>
-        <v>0.13631438314891572</v>
+        <v>1.4969577160604513E-3</v>
       </c>
       <c r="Q23" s="40">
         <f ca="1" xml:space="preserve"> CORREL(P3:P12,P3:P12)^2</f>
-        <v>1.0000000000000004</v>
+        <v>1</v>
       </c>
       <c r="R23" s="40"/>
       <c r="S23" s="40"/>
@@ -4891,15 +4892,15 @@
         <v>0</v>
       </c>
       <c r="I24" s="5">
-        <f ca="1">$G$36+$F$36*N8+$E$36*O8+$D$36*P8+$C$36*Q8+$B$36*R8</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="N24" s="39" t="s">
@@ -4907,15 +4908,15 @@
       </c>
       <c r="O24" s="40">
         <f ca="1">CORREL(N3:N12,Q3:Q12)^2</f>
-        <v>0.31215004909899002</v>
+        <v>4.546311155487477E-3</v>
       </c>
       <c r="P24" s="40">
         <f ca="1">CORREL(O3:O12,Q3:Q12)^2</f>
-        <v>3.5848364966070599E-2</v>
+        <v>0.23100975007767849</v>
       </c>
       <c r="Q24" s="40">
         <f ca="1">CORREL(P3:P12,Q3:Q12)^2</f>
-        <v>2.5936920216143638E-3</v>
+        <v>0.1590786337448831</v>
       </c>
       <c r="R24" s="40">
         <f ca="1" xml:space="preserve"> CORREL(Q3:Q12,Q3:Q12)^2</f>
@@ -4949,15 +4950,15 @@
         <v>0</v>
       </c>
       <c r="I25" s="5">
-        <f ca="1">$G$36+$F$36*N9+$E$36*O9+$D$36*P9+$C$36*Q9+$B$36*R9</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="N25" s="39" t="s">
@@ -4965,19 +4966,19 @@
       </c>
       <c r="O25" s="40">
         <f ca="1">CORREL(N3:N12,R3:R12)^2</f>
-        <v>3.8648705893378835E-2</v>
+        <v>0.16653595339231991</v>
       </c>
       <c r="P25" s="40">
         <f ca="1">CORREL(O3:O12,R3:R12)^2</f>
-        <v>4.1816053634814174E-3</v>
+        <v>8.6730576214320954E-2</v>
       </c>
       <c r="Q25" s="40">
         <f ca="1">CORREL(P3:P12,R3:R12)^2</f>
-        <v>0.12912164258154563</v>
+        <v>5.1477927566077518E-2</v>
       </c>
       <c r="R25" s="40">
         <f ca="1">CORREL(Q3:Q12,R3:R12)^2</f>
-        <v>4.4740218420844573E-2</v>
+        <v>1.8381762861697296E-2</v>
       </c>
       <c r="S25" s="40">
         <f ca="1">CORREL(R3:R12,R3:R12)</f>
@@ -5010,15 +5011,15 @@
         <v>0</v>
       </c>
       <c r="I26" s="5">
-        <f ca="1">$G$36+$F$36*N10+$E$36*O10+$D$36*P10+$C$36*Q10+$B$36*R10</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5048,15 +5049,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="5">
-        <f ca="1">$G$36+$F$36*N11+$E$36*O11+$D$36*P11+$C$36*Q11+$B$36*R11</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5086,15 +5087,15 @@
         <v>0</v>
       </c>
       <c r="I28" s="5">
-        <f ca="1">$G$36+$F$36*N12+$E$36*O12+$D$36*P12+$C$36*Q12+$B$36*R12</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5467,7 +5468,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="41"/>
     <col min="2" max="2" width="6.6640625" style="41" customWidth="1"/>
@@ -5704,17 +5705,229 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD39C5CF-2180-4DD1-B0BC-4E023282F4DB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2:H5">_h4</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" ref="C4:D5">-_h2</f>
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" cm="1">
+        <f t="array" ref="A6:D9">_h4</f>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6:H9">-_h4</f>
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -5728,7 +5941,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
+++ b/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
@@ -8,29 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonor\Documents\INSA\INSA GP 4A\S2\UF du capteur au banc de test\2020-2021_GAICH_STEPHEN_Capteur_Graphite\Banc de test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0645012C-28CE-4BB0-ADEE-CDAB3514DAAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B4BE38-F7B8-4EC7-85D3-830C490305E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri " sheetId="1" r:id="rId1"/>
     <sheet name="Verif Err _ droite henry" sheetId="4" r:id="rId2"/>
-    <sheet name="Plan Mat Hadamard" sheetId="5" r:id="rId3"/>
-    <sheet name="Plan P&amp;B = interactions" sheetId="6" r:id="rId4"/>
+    <sheet name="Plan P&amp;B = interactions" sheetId="6" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_Hexp">'Tri '!#REF!</definedName>
-    <definedName name="_Mat_exp">'Tri '!$N$3:$R$12</definedName>
+    <definedName name="_h2">'Tri '!$O$3:$P$4</definedName>
+    <definedName name="_h4">'Tri '!$O$3:$R$6</definedName>
+    <definedName name="_hexp">'Tri '!$O$3:$T$10</definedName>
+    <definedName name="_Mat_exp">'Tri '!$C$20:$G$27</definedName>
     <definedName name="_sigma" localSheetId="1">#REF!</definedName>
-    <definedName name="_sigma">'Tri '!$K$31</definedName>
-    <definedName name="_sigma2">'Tri '!$K$30</definedName>
-    <definedName name="_sigma²">'Tri '!$K$30</definedName>
+    <definedName name="_sigma">'Tri '!$M$30</definedName>
+    <definedName name="_sigma2">'Tri '!$M$29</definedName>
+    <definedName name="_sigma²">'Tri '!$M$29</definedName>
     <definedName name="_x">'[1]Cigarettes data'!$B$5:$E$28</definedName>
     <definedName name="_y">'[1]Cigarettes data'!$F$5:$F$28</definedName>
-    <definedName name="_Y_mes">'Tri '!$H$19:$H$28</definedName>
+    <definedName name="_Y_mes">'Tri '!$H$20:$H$27</definedName>
+    <definedName name="_Y_mes_Calv">'Tri '!$I$20:$I$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
     <author>CONSTANCIAS Christophe 207436</author>
   </authors>
   <commentList>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{A03DEBA7-7F2A-4C7E-9CA5-198F284F7EB1}">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{A03DEBA7-7F2A-4C7E-9CA5-198F284F7EB1}">
       <text>
         <r>
           <rPr>
@@ -122,7 +124,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -144,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>A</t>
   </si>
@@ -170,27 +172,15 @@
     <t xml:space="preserve">Legende </t>
   </si>
   <si>
-    <t>A : largeur des pads [0.5 ; 1]cm</t>
-  </si>
-  <si>
     <t>B : hauteur du pad [0.5 ; 1.5]cm</t>
   </si>
   <si>
-    <t>C : écartement des pads [0.3 ; 0.6]cm</t>
-  </si>
-  <si>
     <t>D : longueur du capteur [1 ;5]cm</t>
   </si>
   <si>
     <t>E : largeur du capteur [0.2 ;0.6]cm</t>
   </si>
   <si>
-    <t>Tableau fait avec fonction alea et alea entre bornes pour avoir des exp aléatoires</t>
-  </si>
-  <si>
-    <t>Analyse avec droitereg</t>
-  </si>
-  <si>
     <t>Vérifier que les erreurs suivent une loi normale</t>
   </si>
   <si>
@@ -212,9 +202,6 @@
     <t>Err²</t>
   </si>
   <si>
-    <t>Se =</t>
-  </si>
-  <si>
     <t xml:space="preserve">Constante </t>
   </si>
   <si>
@@ -227,25 +214,6 @@
     <t>SCE→</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Grotesque"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ai→</t>
-    </r>
-  </si>
-  <si>
     <t>Verifier le R²</t>
   </si>
   <si>
@@ -276,18 +244,6 @@
     <t>&lt;10% de la valeur moyenne est négligeable</t>
   </si>
   <si>
-    <t>Quels coefs plus importants ? =&gt; Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Hadamard </t>
-  </si>
-  <si>
-    <t>2.Placket et Burman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voir canon à électrons </t>
-  </si>
-  <si>
     <t>Créée à l'aide de la matrice aléatoire</t>
   </si>
   <si>
@@ -300,25 +256,95 @@
     <t>* Le nombre de fibres papier qui sont rompus lors d’un essai</t>
   </si>
   <si>
-    <t>Y (mesure de Ro)</t>
-  </si>
-  <si>
-    <t>Matrice générant des nombres aléatoires pour chaque paramètre compris dans les bornes</t>
+    <t xml:space="preserve">Matrice de Hadamard H8 =&gt; car 5 paramètres à prendre en compte </t>
+  </si>
+  <si>
+    <t>Générer des nombres aléatoires entre bornes : = min + alea()*(max-min)</t>
+  </si>
+  <si>
+    <t>Matrice expérience non normée</t>
+  </si>
+  <si>
+    <t>σai→</t>
+  </si>
+  <si>
+    <t>∑col</t>
+  </si>
+  <si>
+    <t>∑erreurs=</t>
+  </si>
+  <si>
+    <t>C : écartement des pads [0.3 ; 1] cm</t>
+  </si>
+  <si>
+    <t>A : largeur des pads [0.6 ; 1]cm</t>
+  </si>
+  <si>
+    <t>Y (mesure de Ro Calvin)</t>
+  </si>
+  <si>
+    <t>Y (mesure de Ro _ Elé)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesure de Ro avec la pince au milieu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ro </t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Vcc</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Vadc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souhait de faire 2 mesures pour chaque expérience avec un opérateur différent </t>
+  </si>
+  <si>
+    <t>Sauf que problème de reproductibilité … (Parfois ça fonctionne et d'autres fois non)</t>
+  </si>
+  <si>
+    <t>Y (mesure de Ro avec les deux opérateurs</t>
+  </si>
+  <si>
+    <t>Analyse avec droitereg (mesure 2 opérateurs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test OK car les erreurs sont de part et d'autres de 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les dimensions C,D,E semblent avoir un impact assez important  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cste : valeur moyenne du résultat </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0000\ _F_-;\-* #,##0.0000\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.000\ _F_-;\-* #,##0.000\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,14 +353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -410,22 +428,16 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Grotesque"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Grotesque"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -666,98 +678,107 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="48" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="16" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="12" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="17" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="48" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="16" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="12" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="17" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Milliers 2" xfId="3" xr:uid="{D25E7B59-F84A-4C17-9838-5FEC6C4B211E}"/>
@@ -902,80 +923,118 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12256481512175846"/>
+                  <c:y val="-0.17303495260388821"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tri '!$H$19:$H$28</c:f>
+              <c:f>'Tri '!$J$20:$J$27</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tri '!$I$19:$I$28</c:f>
+              <c:f>'Tri '!$K$20:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.60500000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-0.1449999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.3250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.67499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.9999999999998934E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,7 +1133,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1406,78 +1465,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tri '!$H$19:$H$28</c:f>
+              <c:f>'Tri '!$J$20:$J$27</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tri '!$J$19:$J$28</c:f>
+              <c:f>'Tri '!$L$20:$L$27</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.47500000000000053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.26500000000000012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.47500000000000053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.26500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.47499999999999981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-0.26500000000000012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-0.47499999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.26500000000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,7 +1623,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1693,7 +1740,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1900,8 +1947,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.25858945756780405"/>
-                  <c:y val="-4.1666666666666669E-4"/>
+                  <c:x val="0.38258813503234385"/>
+                  <c:y val="-0.18835562657178312"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1937,7 +1984,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.47500000000000053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.47499999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.26500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.26500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47500000000000053</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47499999999999981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1949,34 +2017,34 @@
                 <c:formatCode>_-* #\ ##0.000\ _F_-;\-* #\ ##0.000\ _F_-;_-* "-"??\ _F_-;_-@_-</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1.1897033782170203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.76959772223521361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-0.5041651207364457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.2888128472826198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-9.4291683874030405E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.4291683874030516E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.2888128472826198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.5041651207364457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.76959772223521361</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.1897033782170199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3379,14 +3447,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>53790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>168090</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3415,13 +3483,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3504,16 +3572,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>260984</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3961,13 +4029,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="G3" t="str">
-            <v>Err norm</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4270,1183 +4332,1261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F207AC7-7798-468F-8B32-D39C6BC5D772}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="11.5546875" style="2"/>
-    <col min="13" max="13" width="14.33203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="11" width="11.5546875" style="2"/>
+    <col min="12" max="13" width="11.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N2" s="2" t="s">
-        <v>47</v>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O2" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="5">
-        <f ca="1">0.5+RAND()*(1-0.5)</f>
-        <v>0.63637163661237417</v>
-      </c>
-      <c r="O3" s="5">
-        <f ca="1">0.5+RAND()*(1.5-0.5)</f>
-        <v>1.4117905444133449</v>
-      </c>
-      <c r="P3" s="5">
-        <f ca="1">0.3+RAND()*(0.6-0.3)</f>
-        <v>0.41425779240136257</v>
-      </c>
-      <c r="Q3" s="2">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
-      </c>
-      <c r="R3" s="5">
-        <f ca="1">0.2+RAND()*(0.6-0.2)</f>
-        <v>0.45883893834425082</v>
+        <v>33</v>
+      </c>
+      <c r="O3" s="50">
+        <v>1</v>
+      </c>
+      <c r="P3" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="50">
+        <v>1</v>
+      </c>
+      <c r="R3" s="50">
+        <v>1</v>
+      </c>
+      <c r="S3" s="50" cm="1">
+        <f t="array" ref="S3:V6">_h4</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="50">
+        <v>1</v>
+      </c>
+      <c r="U3" s="50">
+        <v>1</v>
+      </c>
+      <c r="V3" s="50">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" ref="N4:N12" ca="1" si="0">0.5+RAND()*(1-0.5)</f>
-        <v>0.52693310190084119</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" ref="O4:O12" ca="1" si="1">0.5+RAND()*(1.5-0.5)</f>
-        <v>1.074240245558221</v>
-      </c>
-      <c r="P4" s="5">
-        <f t="shared" ref="P4:P12" ca="1" si="2">0.3+RAND()*(0.6-0.3)</f>
-        <v>0.58019404419338261</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" ref="Q4:Q12" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>5</v>
-      </c>
-      <c r="R4" s="5">
-        <f t="shared" ref="R4:R12" ca="1" si="4">0.2+RAND()*(0.6-0.2)</f>
-        <v>0.32082617603494884</v>
+        <v>34</v>
+      </c>
+      <c r="O4" s="50">
+        <v>1</v>
+      </c>
+      <c r="P4" s="50">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="50">
+        <v>1</v>
+      </c>
+      <c r="R4" s="50">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="50">
+        <v>1</v>
+      </c>
+      <c r="T4" s="50">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="50">
+        <v>1</v>
+      </c>
+      <c r="V4" s="50">
+        <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.90669646323302366</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72689340925890322</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.32624461793641668</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R5" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.37087417816549151</v>
+        <v>35</v>
+      </c>
+      <c r="O5" s="50">
+        <v>1</v>
+      </c>
+      <c r="P5" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="50" cm="1">
+        <f t="array" ref="Q5:R6">-_h2</f>
+        <v>-1</v>
+      </c>
+      <c r="R5" s="50">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="50">
+        <v>1</v>
+      </c>
+      <c r="T5" s="50">
+        <v>1</v>
+      </c>
+      <c r="U5" s="50">
+        <v>-1</v>
+      </c>
+      <c r="V5" s="50">
+        <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="50">
+        <v>1</v>
+      </c>
+      <c r="P6" s="50">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="50">
+        <v>1</v>
+      </c>
+      <c r="S6" s="50">
+        <v>1</v>
+      </c>
+      <c r="T6" s="50">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="50">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85467308732098779</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.55368114772028731</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.47230263035947362</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" ca="1" si="3"/>
+      <c r="O7" s="50" cm="1">
+        <f t="array" ref="O7:R10">_h4</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="50">
+        <v>1</v>
+      </c>
+      <c r="R7" s="50">
+        <v>1</v>
+      </c>
+      <c r="S7" s="50" cm="1">
+        <f t="array" ref="S7:V10">-_h4</f>
+        <v>-1</v>
+      </c>
+      <c r="T7" s="50">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="50">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="50">
+        <v>1</v>
+      </c>
+      <c r="P8" s="50">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="50">
+        <v>1</v>
+      </c>
+      <c r="R8" s="50">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="50">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="50">
+        <v>1</v>
+      </c>
+      <c r="U8" s="50">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="50">
+        <v>1</v>
+      </c>
+      <c r="P9" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="50">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="50">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="50">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="50">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="50">
+        <v>1</v>
+      </c>
+      <c r="V9" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="50">
+        <v>1</v>
+      </c>
+      <c r="P10" s="50">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="50">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="50">
+        <v>1</v>
+      </c>
+      <c r="S10" s="50">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="50">
+        <v>1</v>
+      </c>
+      <c r="U10" s="50">
+        <v>1</v>
+      </c>
+      <c r="V10" s="50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="5" t="e">
+        <f>(P15/P16)*((P16+P18)*R15/R18)-P15-R16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="5">
+        <v>100000</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" s="2">
+        <v>5</v>
+      </c>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" s="2">
+        <f>10*10000</f>
+        <v>100000</v>
+      </c>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f>COUNT(O3:O12)</f>
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.3681563078104676</v>
+      <c r="F19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99294796686416709</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1348452693277435</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.58118604181829503</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" ca="1" si="3"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" cm="1">
+        <f t="array" ref="B20:G27">_hexp</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="59">
+        <v>0</v>
+      </c>
+      <c r="I20" s="59">
+        <v>2.63</v>
+      </c>
+      <c r="J20" s="59">
+        <v>2.63</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" ref="K20:K27" si="0">$G$35+$F$35*C20+$E$35*D20+$D$35*E20+$C$35*F20+$B$35*G20</f>
+        <v>3.1050000000000004</v>
+      </c>
+      <c r="L20" s="64">
+        <f>J20-K20</f>
+        <v>-0.47500000000000053</v>
+      </c>
+      <c r="M20" s="5">
+        <f>L20^2</f>
+        <v>0.22562500000000052</v>
+      </c>
+      <c r="O20" s="55">
+        <v>1</v>
+      </c>
+      <c r="P20" s="55">
+        <v>1.5</v>
+      </c>
+      <c r="Q20" s="55">
+        <v>1</v>
+      </c>
+      <c r="R20" s="55">
+        <v>5</v>
+      </c>
+      <c r="S20" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>2</v>
       </c>
-      <c r="R7" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.31890408933739145</v>
-      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="59">
+        <v>0</v>
+      </c>
+      <c r="I21" s="59">
+        <v>3.19</v>
+      </c>
+      <c r="J21" s="59">
+        <v>3.19</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="L21" s="64">
+        <f t="shared" ref="L21:L27" si="1">J21-K21</f>
+        <v>0.26500000000000012</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" ref="M21:M27" si="2">L21^2</f>
+        <v>7.0225000000000065E-2</v>
+      </c>
+      <c r="O21" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="P21" s="55">
+        <v>1.5</v>
+      </c>
+      <c r="Q21" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="R21" s="55">
+        <v>5</v>
+      </c>
+      <c r="S21" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="T21" s="55"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8614180076855098</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86537146696149125</v>
-      </c>
-      <c r="P8" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36281539366831844</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" ca="1" si="3"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="59">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I22" s="59">
+        <v>0</v>
+      </c>
+      <c r="J22" s="59">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="0"/>
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="L22" s="64">
+        <f t="shared" si="1"/>
+        <v>0.47500000000000053</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22562500000000052</v>
+      </c>
+      <c r="O22" s="55">
+        <v>1</v>
+      </c>
+      <c r="P22" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q22" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="R22" s="56">
         <v>5</v>
       </c>
-      <c r="R8" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.31695414427686108</v>
-      </c>
+      <c r="S22" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="T22" s="56"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55859372497171456</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1426769808075945</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.5321990441063722</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" ca="1" si="3"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="59">
+        <v>0</v>
+      </c>
+      <c r="I23" s="59">
+        <v>0.34</v>
+      </c>
+      <c r="J23" s="59">
+        <v>0.34</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.60500000000000009</v>
+      </c>
+      <c r="L23" s="64">
+        <f t="shared" si="1"/>
+        <v>-0.26500000000000007</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="2"/>
+        <v>7.0225000000000037E-2</v>
+      </c>
+      <c r="O23" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="P23" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="56">
+        <v>1</v>
+      </c>
+      <c r="R23" s="56">
         <v>5</v>
       </c>
-      <c r="R9" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.2872174830613341</v>
-      </c>
+      <c r="S23" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="T23" s="56"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76412042816344905</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.3583054907318788</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.5411763747654601</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.31250090252694507</v>
-      </c>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="59">
+        <v>0.33</v>
+      </c>
+      <c r="I24" s="59">
+        <v>0</v>
+      </c>
+      <c r="J24" s="59">
+        <v>0.33</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.1449999999999998</v>
+      </c>
+      <c r="L24" s="64">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999981</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22562499999999983</v>
+      </c>
+      <c r="O24" s="55">
+        <v>1</v>
+      </c>
+      <c r="P24" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="Q24" s="56">
+        <v>1</v>
+      </c>
+      <c r="R24" s="56">
+        <v>1</v>
+      </c>
+      <c r="S24" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="T24" s="56"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9419038645986999</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2232689975025108</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4802083603092222</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R11" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.30019972191100763</v>
-      </c>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="59">
+        <v>2.06</v>
+      </c>
+      <c r="I25" s="59">
+        <v>0</v>
+      </c>
+      <c r="J25" s="59">
+        <v>2.06</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="L25" s="64">
+        <f t="shared" si="1"/>
+        <v>-0.26500000000000012</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="2"/>
+        <v>7.0225000000000065E-2</v>
+      </c>
+      <c r="O25" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="P25" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="R25" s="56">
+        <v>1</v>
+      </c>
+      <c r="S25" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="T25" s="56"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92541059177170149</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2001163562430883</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.43233843377956688</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="R12" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.26639395245599629</v>
-      </c>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="59">
+        <v>0</v>
+      </c>
+      <c r="J26" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="L26" s="64">
+        <f t="shared" si="1"/>
+        <v>-0.47499999999999992</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22562499999999994</v>
+      </c>
+      <c r="O26" s="55">
+        <v>1</v>
+      </c>
+      <c r="P26" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="R26" s="56">
+        <v>1</v>
+      </c>
+      <c r="S26" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="T26" s="56"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="R13" s="5"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>8</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="59">
+        <v>0</v>
+      </c>
+      <c r="I27" s="59">
+        <v>0.27</v>
+      </c>
+      <c r="J27" s="59">
+        <v>0.27</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9999999999998934E-3</v>
+      </c>
+      <c r="L27" s="64">
+        <f t="shared" si="1"/>
+        <v>0.26500000000000012</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="2"/>
+        <v>7.0225000000000065E-2</v>
+      </c>
+      <c r="O27" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="P27" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="Q27" s="55">
+        <v>1</v>
+      </c>
+      <c r="R27" s="55">
+        <v>1</v>
+      </c>
+      <c r="S27" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="T27" s="55"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="R14" s="5"/>
+    <row r="28" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUM(C20:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" ref="D28:G28" si="3">SUM(D20:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="14">
+        <f>SUM(L20:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <f>SUMSQ(L20:L27)</f>
+        <v>1.1834000000000011</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="2">
-        <f ca="1">COUNT(N3:N12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <f ca="1">$G$36+$F$36*N3+$E$36*O3+$D$36*P3+$C$36*Q3+$B$36*R3</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <f ca="1">H19-I19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <f ca="1">J19^2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <f ca="1">$G$36+$F$36*N4+$E$36*O4+$D$36*P4+$C$36*Q4+$B$36*R4</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" ref="J20:J28" ca="1" si="5">H20-I20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" ref="K20:K28" ca="1" si="6">J20^2</f>
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <f ca="1">$G$36+$F$36*N5+$E$36*O5+$D$36*P5+$C$36*Q5+$B$36*R5</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="40">
-        <f ca="1">CORREL(N3:N12,N3:N12)^2</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-    </row>
-    <row r="22" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>4</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <f ca="1">$G$36+$F$36*N6+$E$36*O6+$D$36*P6+$C$36*Q6+$B$36*R6</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="40">
-        <f ca="1">CORREL(N3:N12,O3:O12)^2</f>
-        <v>7.3389570631083034E-2</v>
-      </c>
-      <c r="P22" s="40">
-        <f ca="1">CORREL(O3:O12,O3:O12)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-    </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>5</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <f ca="1">$G$36+$F$36*N7+$E$36*O7+$D$36*P7+$C$36*Q7+$B$36*R7</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23" s="40">
-        <f ca="1">CORREL(N3:N12,P3:P12)^2</f>
-        <v>0.1001301816827003</v>
-      </c>
-      <c r="P23" s="40">
-        <f ca="1">CORREL(O3:O12,P3:P12)^2</f>
-        <v>0.13631438314891572</v>
-      </c>
-      <c r="Q23" s="40">
-        <f ca="1" xml:space="preserve"> CORREL(P3:P12,P3:P12)^2</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-    </row>
-    <row r="24" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>6</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <f ca="1">$G$36+$F$36*N8+$E$36*O8+$D$36*P8+$C$36*Q8+$B$36*R8</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="40">
-        <f ca="1">CORREL(N3:N12,Q3:Q12)^2</f>
-        <v>0.31215004909899002</v>
-      </c>
-      <c r="P24" s="40">
-        <f ca="1">CORREL(O3:O12,Q3:Q12)^2</f>
-        <v>3.5848364966070599E-2</v>
-      </c>
-      <c r="Q24" s="40">
-        <f ca="1">CORREL(P3:P12,Q3:Q12)^2</f>
-        <v>2.5936920216143638E-3</v>
-      </c>
-      <c r="R24" s="40">
-        <f ca="1" xml:space="preserve"> CORREL(Q3:Q12,Q3:Q12)^2</f>
-        <v>1</v>
-      </c>
-      <c r="S24" s="40"/>
-    </row>
-    <row r="25" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>7</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="2">
-        <v>3</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <f ca="1">$G$36+$F$36*N9+$E$36*O9+$D$36*P9+$C$36*Q9+$B$36*R9</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="40">
-        <f ca="1">CORREL(N3:N12,R3:R12)^2</f>
-        <v>3.8648705893378835E-2</v>
-      </c>
-      <c r="P25" s="40">
-        <f ca="1">CORREL(O3:O12,R3:R12)^2</f>
-        <v>4.1816053634814174E-3</v>
-      </c>
-      <c r="Q25" s="40">
-        <f ca="1">CORREL(P3:P12,R3:R12)^2</f>
-        <v>0.12912164258154563</v>
-      </c>
-      <c r="R25" s="40">
-        <f ca="1">CORREL(Q3:Q12,R3:R12)^2</f>
-        <v>4.4740218420844573E-2</v>
-      </c>
-      <c r="S25" s="40">
-        <f ca="1">CORREL(R3:R12,R3:R12)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>8</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <f ca="1">$G$36+$F$36*N10+$E$36*O10+$D$36*P10+$C$36*Q10+$B$36*R10</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>9</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <f ca="1">$G$36+$F$36*N11+$E$36*O11+$D$36*P11+$C$36*Q11+$B$36*R11</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>10</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="2">
-        <v>4</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <f ca="1">$G$36+$F$36*N12+$E$36*O12+$D$36*P12+$C$36*Q12+$B$36*R12</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>32</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="I29" s="13" t="s">
+      <c r="M29" s="63">
+        <f>SUM(M20:M27)/C38</f>
+        <v>0.59170000000000056</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M30" s="12">
+        <f>SQRT(M29)</f>
+        <v>0.76922038454528785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="61"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="20" cm="1">
+        <f t="array" ref="B35:G39">LINEST(J20:J27,_Mat_exp,1,1)</f>
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="C35" s="21">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-0.78499999999999992</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.21250000000000011</v>
+      </c>
+      <c r="G35" s="22">
+        <v>1.6775</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="52">
+        <f>CORREL(C20:C27,C20:C27)^2</f>
+        <v>1</v>
+      </c>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="61"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="23">
+        <v>0.27196047506944815</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.2719604750694482</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0.27196047506944815</v>
+      </c>
+      <c r="E36" s="24">
+        <v>0.27196047506944815</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0.27196047506944815</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0.27196047506944815</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="52">
+        <f>CORREL(C20:C27,D20:D27)^2</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="52">
+        <f>CORREL(D20:D27,D20:D27)</f>
+        <v>1</v>
+      </c>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="61"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="34">
+        <v>0.93610823914328678</v>
+      </c>
+      <c r="C37" s="35">
+        <v>0.76922038454528718</v>
+      </c>
+      <c r="D37" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F37" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="52">
+        <f>CORREL(C20:C27,E20:E27)^2</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="52">
+        <f>CORREL(D20:D27,E20:E27)^2</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="52">
+        <f xml:space="preserve"> CORREL(E20:E27,E20:E27)^2</f>
+        <v>1</v>
+      </c>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="61"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="27">
+        <v>5.8605881358796763</v>
+      </c>
+      <c r="C38" s="36">
+        <v>2</v>
+      </c>
+      <c r="D38" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F38" s="29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G38" s="30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="52">
+        <f>CORREL(C20:C27,F20:F27)^2</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="52">
+        <f>CORREL(D20:D27,F20:F27)^2</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="52">
+        <f>CORREL(E20:E27,F20:F27)^2</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="52">
+        <f xml:space="preserve"> CORREL(F20:F27,F20:F27)^2</f>
+        <v>1</v>
+      </c>
+      <c r="N38" s="52"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="61"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="31">
+        <v>17.338550000000005</v>
+      </c>
+      <c r="C39" s="32">
+        <v>1.1833999999999989</v>
+      </c>
+      <c r="D39" s="32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F39" s="32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G39" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I39" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="52">
+        <f>CORREL(C20:C27,G20:G27)^2</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="52">
+        <f>CORREL(D20:D27,G20:G27)^2</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="52">
+        <f>CORREL(E20:E27,G20:G27)^2</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="52">
+        <f>CORREL(F20:F27,G20:G27)^2</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="52">
+        <f>CORREL(G20:G27,G20:G27)</f>
+        <v>1</v>
+      </c>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="61"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="14">
-        <f ca="1">SUM(J19:J28)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="15">
-        <f ca="1">SUMSQ(J19:J28)</f>
-        <v>0</v>
+      <c r="E41" s="47" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="K30" s="16">
-        <f ca="1">SUM(J19:J28)/C39</f>
-        <v>0</v>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K31" s="12">
-        <f ca="1">SQRT(K30)</f>
-        <v>0</v>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>16</v>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="53" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>29</v>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="53" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" t="s">
-        <v>30</v>
-      </c>
-      <c r="J35" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="K35" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="L35" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="21" cm="1">
-        <f t="array" aca="1" ref="B36:G40" ca="1">LINEST(_Y_mes,_Mat_exp,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="22">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="22">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="22">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="22">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="23">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="40">
-        <f>CORREL(C19:C28,C19:C28)^2</f>
-        <v>1</v>
-      </c>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="24">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="25">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="26">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="25">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="25">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="27">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" s="40">
-        <f>CORREL(C19:C28,D19:D28)^2</f>
-        <v>0.18402571969140166</v>
-      </c>
-      <c r="K37" s="40">
-        <f>CORREL(D19:D28,D19:D28)</f>
-        <v>1</v>
-      </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-    </row>
-    <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="36">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="C38" s="37">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D38" s="29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G38" s="31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="40">
-        <f>CORREL(C19:C28,E19:E28)^2</f>
-        <v>1.1052777010223773E-3</v>
-      </c>
-      <c r="K38" s="40">
-        <f>CORREL(D19:D28,E19:E28)^2</f>
-        <v>2.7797475535385113E-2</v>
-      </c>
-      <c r="L38" s="40" cm="1">
-        <f t="array" ref="L38" xml:space="preserve"> CORREL(E19:E28,E19:E28^2)</f>
-        <v>0.99705933610227782</v>
-      </c>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-    </row>
-    <row r="39" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B39" s="28" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C39" s="38">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="D39" s="29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E39" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F39" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G39" s="31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I39" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="40">
-        <f>CORREL(C19:C28,F19:F28)^2</f>
-        <v>7.9315120231650566E-3</v>
-      </c>
-      <c r="K39" s="40">
-        <f>CORREL(D19:D28,F19:F28)^2</f>
-        <v>2.6677990196531001E-3</v>
-      </c>
-      <c r="L39" s="40">
-        <f>CORREL(E19:E28,F19:F28)^2</f>
-        <v>4.8413125336202326E-3</v>
-      </c>
-      <c r="M39" s="40">
-        <f xml:space="preserve"> CORREL(F19:F28,F19:F28)^2</f>
-        <v>1</v>
-      </c>
-      <c r="N39" s="40"/>
-    </row>
-    <row r="40" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="32">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="33">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F40" s="33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G40" s="34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I40" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="40">
-        <f>CORREL(C19:C28,G19:G28)^2</f>
-        <v>2.8057049333645194E-3</v>
-      </c>
-      <c r="K40" s="40">
-        <f>CORREL(D19:D28,G19:G28)^2</f>
-        <v>1.9600784031361209E-3</v>
-      </c>
-      <c r="L40" s="40">
-        <f>CORREL(E19:E28,G19:G28)^2</f>
-        <v>9.3240093240093084E-3</v>
-      </c>
-      <c r="M40" s="40">
-        <f>CORREL(F19:F28,G19:G28)^2</f>
-        <v>0.1275982400242755</v>
-      </c>
-      <c r="N40" s="40">
-        <f>CORREL(G19:G28,G19:G28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
-        <v>37</v>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5464,237 +5604,261 @@
   <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="41"/>
-    <col min="2" max="2" width="6.6640625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="41"/>
+    <col min="1" max="1" width="11.5546875" style="37"/>
+    <col min="2" max="2" width="6.6640625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="37" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C1" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="43">
-        <f ca="1">AVERAGE(D4:D13)</f>
+      <c r="C1" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="39">
+        <f>AVERAGE(D4:D13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="49">
-        <f ca="1">'Tri '!C38</f>
-        <v>0</v>
+      <c r="C2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="45">
+        <f>'Tri '!C37</f>
+        <v>0.76922038454528718</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>35</v>
+      <c r="D3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="46">
-        <v>1</v>
-      </c>
-      <c r="D4" s="47">
-        <f ca="1">'Tri '!J19</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="48">
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="D4" s="43">
+        <f>'Tri '!L20</f>
+        <v>-0.47500000000000053</v>
+      </c>
+      <c r="E4" s="44">
         <f>(B4-0.375)/($B$13+0.25)</f>
         <v>6.097560975609756E-2</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="44">
         <f>NORMSINV(E4)</f>
         <v>-1.54663527139923</v>
       </c>
-      <c r="G4" s="48">
-        <f ca="1">F4*$D$2+$D$1</f>
-        <v>0</v>
+      <c r="G4" s="44">
+        <f>F4*$D$2+$D$1</f>
+        <v>-1.1897033782170203</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="46">
+      <c r="B5" s="42">
         <v>2</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48">
+      <c r="D5" s="43">
+        <f>'Tri '!L26</f>
+        <v>-0.47499999999999992</v>
+      </c>
+      <c r="E5" s="44">
         <f t="shared" ref="E5:E13" si="0">(B5-0.375)/($B$13+0.25)</f>
         <v>0.15853658536585366</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="44">
         <f t="shared" ref="F5:F13" si="1">NORMSINV(E5)</f>
         <v>-1.0004905456193149</v>
       </c>
-      <c r="G5" s="48">
-        <f t="shared" ref="G5:G13" ca="1" si="2">F5*$D$2+$D$1</f>
-        <v>0</v>
+      <c r="G5" s="44">
+        <f t="shared" ref="G5:G13" si="2">F5*$D$2+$D$1</f>
+        <v>-0.76959772223521361</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="46">
+      <c r="B6" s="42">
         <v>3</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48">
+      <c r="D6" s="43">
+        <f>'Tri '!L23</f>
+        <v>-0.26500000000000007</v>
+      </c>
+      <c r="E6" s="44">
         <f t="shared" si="0"/>
         <v>0.25609756097560976</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="44">
         <f t="shared" si="1"/>
         <v>-0.65542350523442661</v>
       </c>
-      <c r="G6" s="48">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="G6" s="44">
+        <f t="shared" si="2"/>
+        <v>-0.5041651207364457</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="46">
+      <c r="B7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48">
+      <c r="D7" s="43">
+        <f>'Tri '!L25</f>
+        <v>-0.26500000000000012</v>
+      </c>
+      <c r="E7" s="44">
         <f t="shared" si="0"/>
         <v>0.35365853658536583</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="44">
         <f t="shared" si="1"/>
         <v>-0.37546177023551847</v>
       </c>
-      <c r="G7" s="48">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="G7" s="44">
+        <f t="shared" si="2"/>
+        <v>-0.2888128472826198</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="46">
+      <c r="B8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48">
+      <c r="D8" s="43">
+        <f>'Tri '!L21</f>
+        <v>0.26500000000000012</v>
+      </c>
+      <c r="E8" s="44">
         <f t="shared" si="0"/>
         <v>0.45121951219512196</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="44">
         <f t="shared" si="1"/>
         <v>-0.12258084388880242</v>
       </c>
-      <c r="G8" s="48">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="G8" s="44">
+        <f t="shared" si="2"/>
+        <v>-9.4291683874030405E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="46">
+      <c r="B9" s="42">
         <v>6</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48">
+      <c r="D9" s="43">
+        <f>'Tri '!L27</f>
+        <v>0.26500000000000012</v>
+      </c>
+      <c r="E9" s="44">
         <f t="shared" si="0"/>
         <v>0.54878048780487809</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="44">
         <f t="shared" si="1"/>
         <v>0.12258084388880255</v>
       </c>
-      <c r="G9" s="48">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="G9" s="44">
+        <f t="shared" si="2"/>
+        <v>9.4291683874030516E-2</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="46">
+      <c r="B10" s="42">
         <v>7</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48">
+      <c r="D10" s="43">
+        <f>'Tri '!L22</f>
+        <v>0.47500000000000053</v>
+      </c>
+      <c r="E10" s="44">
         <f t="shared" si="0"/>
         <v>0.64634146341463417</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="44">
         <f t="shared" si="1"/>
         <v>0.37546177023551847</v>
       </c>
-      <c r="G10" s="48">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="G10" s="44">
+        <f t="shared" si="2"/>
+        <v>0.2888128472826198</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="46">
+      <c r="B11" s="42">
         <v>8</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48">
+      <c r="D11" s="43">
+        <f>'Tri '!L24</f>
+        <v>0.47499999999999981</v>
+      </c>
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>0.74390243902439024</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="44">
         <f t="shared" si="1"/>
         <v>0.65542350523442661</v>
       </c>
-      <c r="G11" s="48">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="G11" s="44">
+        <f t="shared" si="2"/>
+        <v>0.5041651207364457</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="46">
+      <c r="B12" s="42">
         <v>9</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48">
+      <c r="D12" s="43"/>
+      <c r="E12" s="44">
         <f t="shared" si="0"/>
         <v>0.84146341463414631</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="44">
         <f t="shared" si="1"/>
         <v>1.0004905456193149</v>
       </c>
-      <c r="G12" s="48">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="G12" s="44">
+        <f t="shared" si="2"/>
+        <v>0.76959772223521361</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="46">
+      <c r="B13" s="42">
         <v>10</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48">
+      <c r="D13" s="43"/>
+      <c r="E13" s="44">
         <f t="shared" si="0"/>
         <v>0.93902439024390238</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="44">
         <f t="shared" si="1"/>
         <v>1.5466352713992295</v>
       </c>
-      <c r="G13" s="48">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="G13" s="44">
+        <f t="shared" si="2"/>
+        <v>1.1897033782170199</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:D11">
+    <sortCondition ref="D4:D11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5703,26 +5867,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD39C5CF-2180-4DD1-B0BC-4E023282F4DB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D24C54B-46C9-45DA-8E65-33C44C59CCA6}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
+++ b/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonor\Documents\INSA\INSA GP 4A\S2\UF du capteur au banc de test\2020-2021_GAICH_STEPHEN_Capteur_Graphite\Banc de test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4718A3F8-1B4B-454B-A8E6-D1A32FB72550}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA498B-3E3B-4BC2-BCD1-32DC79478963}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
   </bookViews>
@@ -280,12 +280,6 @@
     <t>A : largeur des pads [0.6 ; 1]cm</t>
   </si>
   <si>
-    <t>Y (mesure de Ro Calvin)</t>
-  </si>
-  <si>
-    <t>Y (mesure de Ro _ Elé)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mesure de Ro avec la pince au milieu </t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>Sauf que problème de reproductibilité … (Parfois ça fonctionne et d'autres fois non)</t>
   </si>
   <si>
-    <t>Y (mesure de Ro avec les deux opérateurs</t>
-  </si>
-  <si>
     <t>Analyse avec droitereg (mesure 2 opérateurs)</t>
   </si>
   <si>
@@ -329,6 +320,15 @@
   </si>
   <si>
     <t xml:space="preserve">Cste : valeur moyenne du résultat </t>
+  </si>
+  <si>
+    <t>Y (mesure de Vadc _ Elé)</t>
+  </si>
+  <si>
+    <t>Y (mesure de Vadc Calvin)</t>
+  </si>
+  <si>
+    <t>Y (mesure de Vadc avec les deux opérateurs</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -779,6 +779,7 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Milliers 2" xfId="3" xr:uid="{D25E7B59-F84A-4C17-9838-5FEC6C4B211E}"/>
@@ -4334,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F207AC7-7798-468F-8B32-D39C6BC5D772}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4624,25 +4625,25 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="5" t="e">
+      <c r="O14" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="65">
         <f>(P15/P16)*((P16+P18)*R15/R18)-P15-R16</f>
-        <v>#DIV/0!</v>
+        <v>19001520.912547529</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O15" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P15" s="5">
         <v>100000</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R15" s="2">
         <v>5</v>
@@ -4651,16 +4652,16 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P16" s="5">
         <v>1000</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R16" s="2">
         <f>10*10000</f>
@@ -4670,7 +4671,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -4683,19 +4684,22 @@
         <v>8</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="2">
         <v>100000</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="R18" s="2">
+        <v>2.63</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -4718,13 +4722,13 @@
         <v>6</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J19" s="57" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>14</v>
@@ -5290,7 +5294,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>23</v>
@@ -5558,7 +5562,7 @@
         <v>22</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -5566,7 +5570,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -5586,7 +5590,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
+++ b/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonor\Documents\INSA\INSA GP 4A\S2\UF du capteur au banc de test\2020-2021_GAICH_STEPHEN_Capteur_Graphite\Banc de test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA498B-3E3B-4BC2-BCD1-32DC79478963}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018289F6-2B4A-4DB2-B31E-E259EE411922}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri " sheetId="1" r:id="rId1"/>
     <sheet name="Verif Err _ droite henry" sheetId="4" r:id="rId2"/>
-    <sheet name="Plan P&amp;B = interactions" sheetId="6" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_h2">'Tri '!$O$3:$P$4</definedName>
@@ -776,10 +775,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Milliers 2" xfId="3" xr:uid="{D25E7B59-F84A-4C17-9838-5FEC6C4B211E}"/>
@@ -4335,7 +4334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F207AC7-7798-468F-8B32-D39C6BC5D772}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -4349,16 +4348,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O2" s="2" t="s">
@@ -4625,10 +4624,10 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="65">
+      <c r="P14" s="64">
         <f>(P15/P16)*((P16+P18)*R15/R18)-P15-R16</f>
         <v>19001520.912547529</v>
       </c>
@@ -5607,7 +5606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43B6A33-2E8F-4B4B-96A0-C8AD2A653249}">
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -5868,16 +5867,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D24C54B-46C9-45DA-8E65-33C44C59CCA6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
+++ b/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonor\Documents\INSA\INSA GP 4A\S2\UF du capteur au banc de test\2020-2021_GAICH_STEPHEN_Capteur_Graphite\Banc de test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018289F6-2B4A-4DB2-B31E-E259EE411922}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3757FA1-822D-4F79-84B1-89BB3C0E724C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri " sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
     <t>Y (mesure de Vadc Calvin)</t>
   </si>
   <si>
-    <t>Y (mesure de Vadc avec les deux opérateurs</t>
+    <t>Y (mesure de Vadc avec les deux opérateurs)</t>
   </si>
 </sst>
 </file>
@@ -4334,8 +4334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F207AC7-7798-468F-8B32-D39C6BC5D772}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5606,7 +5606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43B6A33-2E8F-4B4B-96A0-C8AD2A653249}">
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
+++ b/Banc de test/Plan d'expérience_meilleures_dimensions.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonor\Documents\INSA\INSA GP 4A\S2\UF du capteur au banc de test\2020-2021_GAICH_STEPHEN_Capteur_Graphite\Banc de test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3757FA1-822D-4F79-84B1-89BB3C0E724C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64B044A-FAD4-4FAF-ACA4-F2764FAFCE68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri " sheetId="1" r:id="rId1"/>
-    <sheet name="Verif Err _ droite henry" sheetId="4" r:id="rId2"/>
+    <sheet name="Verif Err_validation mod" sheetId="4" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>A</t>
   </si>
@@ -312,9 +312,6 @@
     <t>Analyse avec droitereg (mesure 2 opérateurs)</t>
   </si>
   <si>
-    <t xml:space="preserve">Test OK car les erreurs sont de part et d'autres de 0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Les dimensions C,D,E semblent avoir un impact assez important  </t>
   </si>
   <si>
@@ -328,6 +325,12 @@
   </si>
   <si>
     <t>Y (mesure de Vadc avec les deux opérateurs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erreurs sont de part et d'autre de 0 + courbe aléatoire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pente ~ 1 + ordonnée à l'origine ~ 0 </t>
   </si>
 </sst>
 </file>
@@ -823,42 +826,22 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR" u="sng">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Test de validation du modèle : </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" u="sng">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Ŷ en fonction de Ymes</a:t>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Droite de Henry</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -866,47 +849,45 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.390288713910761E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.56181867891513559"/>
+          <c:h val="0.70696741032370958"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Verif Err_validation mod'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Err norm </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="19050">
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -927,45 +908,41 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="dash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispEq val="0"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.12256481512175846"/>
-                  <c:y val="-0.17303495260388821"/>
+                  <c:x val="0.38258813503234385"/>
+                  <c:y val="-0.18835562657178312"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
-                <a:ln>
+                <a:ln w="25400">
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:srgbClr val="333333"/>
                       </a:solidFill>
-                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:latin typeface="Calibri"/>
+                      <a:ea typeface="Calibri"/>
+                      <a:cs typeface="Calibri"/>
                     </a:defRPr>
                   </a:pPr>
                   <a:endParaRPr lang="fr-FR"/>
@@ -975,66 +952,72 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Tri '!$J$20:$J$27</c:f>
+              <c:f>'Verif Err_validation mod'!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.63</c:v>
+                  <c:v>-0.47500000000000053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.19</c:v>
+                  <c:v>-0.47499999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>-0.26500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34</c:v>
+                  <c:v>-0.26500000000000012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33</c:v>
+                  <c:v>0.26500000000000012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.06</c:v>
+                  <c:v>0.26500000000000012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2</c:v>
+                  <c:v>0.47500000000000053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27</c:v>
+                  <c:v>0.47499999999999981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Tri '!$K$20:$K$27</c:f>
+              <c:f>'Verif Err_validation mod'!$G$4:$G$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>_-* #\ ##0.000\ _F_-;\-* #\ ##0.000\ _F_-;_-* "-"??\ _F_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.1050000000000004</c:v>
+                  <c:v>-1.1897033782170203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9249999999999998</c:v>
+                  <c:v>-0.76959772223521361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9249999999999998</c:v>
+                  <c:v>-0.5041651207364457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60500000000000009</c:v>
+                  <c:v>-0.2888128472826198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.1449999999999998</c:v>
+                  <c:v>-9.4291683874030405E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3250000000000002</c:v>
+                  <c:v>9.4291683874030516E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67499999999999993</c:v>
+                  <c:v>0.2888128472826198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9999999999998934E-3</c:v>
+                  <c:v>0.5041651207364457</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76959772223521361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1897033782170199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,7 +1025,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9612-4349-92B9-D87AC6CF554A}"/>
+              <c16:uniqueId val="{00000001-7053-4223-A660-A36CA77937DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1054,84 +1037,56 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="540325472"/>
-        <c:axId val="540323392"/>
+        <c:axId val="329192928"/>
+        <c:axId val="329193320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="540325472"/>
+        <c:axId val="329192928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Ŷ</a:t>
+                  <a:t>Erreur du modèle</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.26458814523184598"/>
+              <c:y val="0.91571741032370957"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1151,31 +1106,28 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="333333"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540323392"/>
+        <c:crossAx val="329193320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="540323392"/>
+        <c:axId val="329193320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,59 +1150,43 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Ymes</a:t>
+                  <a:t>Err Normale</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.34388888888888891"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.000\ _F_-;\-* #\ ##0.000\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1268,46 +1204,62 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="333333"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540325472"/>
+        <c:crossAx val="329192928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="825" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333333"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1330,9 +1282,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr b="1" u="none">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface="Calibri"/>
+          <a:cs typeface="Calibri"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="fr-FR"/>
@@ -1532,7 +1488,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C32-4932-8E01-6CC2A843670D}"/>
+              <c16:uniqueId val="{00000000-5381-492C-BF0F-AD38357B98B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1853,22 +1809,42 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Droite de Henry</a:t>
+              <a:rPr lang="fr-FR" u="sng">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Test de validation du modèle : </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" u="sng">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ŷ en fonction de Ymes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1876,45 +1852,47 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.390288713910761E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.56181867891513559"/>
-          <c:h val="0.70696741032370958"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Verif Err _ droite henry'!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> Err norm </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -1935,41 +1913,45 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="C00000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.38258813503234385"/>
-                  <c:y val="-0.18835562657178312"/>
+                  <c:x val="0.12256481512175846"/>
+                  <c:y val="-0.17303495260388821"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
-                <a:ln w="25400">
+                <a:ln>
                   <a:noFill/>
                 </a:ln>
+                <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:srgbClr val="333333"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
                       </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                      <a:ea typeface="Calibri"/>
-                      <a:cs typeface="Calibri"/>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
                   <a:endParaRPr lang="fr-FR"/>
@@ -1979,72 +1961,66 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Verif Err _ droite henry'!$D$4:$D$13</c:f>
+              <c:f>'Tri '!$J$20:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.47500000000000053</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.47499999999999992</c:v>
+                  <c:v>3.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.26500000000000007</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.26500000000000012</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26500000000000012</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26500000000000012</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47500000000000053</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47499999999999981</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Verif Err _ droite henry'!$G$4:$G$13</c:f>
+              <c:f>'Tri '!$K$20:$K$27</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.000\ _F_-;\-* #\ ##0.000\ _F_-;_-* "-"??\ _F_-;_-@_-</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-1.1897033782170203</c:v>
+                  <c:v>3.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.76959772223521361</c:v>
+                  <c:v>2.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.5041651207364457</c:v>
+                  <c:v>3.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.2888128472826198</c:v>
+                  <c:v>0.60500000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.4291683874030405E-2</c:v>
+                  <c:v>-0.1449999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4291683874030516E-2</c:v>
+                  <c:v>2.3250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2888128472826198</c:v>
+                  <c:v>0.67499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5041651207364457</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.76959772223521361</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1897033782170199</c:v>
+                  <c:v>4.9999999999998934E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,7 +2028,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7053-4223-A660-A36CA77937DF}"/>
+              <c16:uniqueId val="{00000001-F536-4783-8110-2C52F6EC9344}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2064,56 +2040,84 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329192928"/>
-        <c:axId val="329193320"/>
+        <c:axId val="540325472"/>
+        <c:axId val="540323392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329192928"/>
+        <c:axId val="540325472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
-          <c:min val="-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface="Calibri"/>
-                    <a:cs typeface="Calibri"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Erreur du modèle</a:t>
+                  <a:t>Ymes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.26458814523184598"/>
-              <c:y val="0.91571741032370957"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="25400">
+            <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2133,28 +2137,31 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="333333"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329193320"/>
+        <c:crossAx val="540323392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329193320"/>
+        <c:axId val="540323392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,43 +2184,59 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface="Calibri"/>
-                    <a:cs typeface="Calibri"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Err Normale</a:t>
+                  <a:t>Ŷ</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.3888888888888888E-2"/>
-              <c:y val="0.34388888888888891"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="25400">
+            <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_-* #\ ##0.000\ _F_-;\-* #\ ##0.000\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2231,62 +2254,46 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="333333"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329192928"/>
+        <c:crossAx val="540325472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="825" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333333"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2309,13 +2316,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Calibri"/>
-          <a:ea typeface="Calibri"/>
-          <a:cs typeface="Calibri"/>
+        <a:defRPr b="1" u="none">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="fr-FR"/>
@@ -3443,78 +3446,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>53790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>168090</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAF328E-495D-429C-9F89-52764380E305}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34102237-78F7-4CCA-B0B3-63D1AA61C59A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3542,7 +3473,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3603,6 +3534,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97603</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>18153</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B5573E-EB6D-49FE-A0B0-EC03BD557C18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>193413</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>21963</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31E43EA-58B3-493E-AF50-2AEC0B47E4BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4332,10 +4339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F207AC7-7798-468F-8B32-D39C6BC5D772}">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4721,13 +4728,13 @@
         <v>6</v>
       </c>
       <c r="H19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="J19" s="57" t="s">
         <v>59</v>
-      </c>
-      <c r="J19" s="57" t="s">
-        <v>60</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>14</v>
@@ -5561,7 +5568,7 @@
         <v>22</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -5569,7 +5576,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -5585,11 +5592,6 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="53" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5604,10 +5606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43B6A33-2E8F-4B4B-96A0-C8AD2A653249}">
-  <dimension ref="B1:G13"/>
+  <dimension ref="B1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5858,6 +5860,14 @@
         <v>1.1897033782170199</v>
       </c>
     </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:D11">
     <sortCondition ref="D4:D11"/>
